--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_21_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_21_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2607781.011090302</v>
+        <v>2603478.849193835</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>140.709404802355</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -667,13 +667,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="G2" t="n">
-        <v>175.6809662669686</v>
+        <v>13.09783323005805</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.36529914368134</v>
+        <v>11.36529914368137</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663198</v>
       </c>
     </row>
     <row r="3">
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714238</v>
+        <v>26.91122581714239</v>
       </c>
       <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>187.5255871663198</v>
+      </c>
+      <c r="W3" t="n">
+        <v>187.5255871663198</v>
+      </c>
+      <c r="X3" t="n">
         <v>138.2613113589521</v>
       </c>
-      <c r="T3" t="n">
-        <v>187.5255871663199</v>
-      </c>
-      <c r="U3" t="n">
-        <v>187.5255871663199</v>
-      </c>
-      <c r="V3" t="n">
-        <v>187.5255871663199</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
     </row>
     <row r="4">
@@ -819,13 +819,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -834,13 +834,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318196</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>23.43375830553086</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>3.343082173845815</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -870,13 +870,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>187.5255871663199</v>
+        <v>74.05886751329385</v>
       </c>
       <c r="V4" t="n">
-        <v>50.64898049238255</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -898,22 +898,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>349.2299344537557</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>349.2299344537557</v>
       </c>
       <c r="E5" t="n">
-        <v>349.2299344537558</v>
+        <v>295.0634900260868</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>349.2299344537557</v>
       </c>
       <c r="G5" t="n">
         <v>12.538236240781</v>
       </c>
       <c r="H5" t="n">
-        <v>311.1628534397887</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>146.0239967969024</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>180.2305285014403</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.2299344537558</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -980,19 +980,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>37.47688862662637</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.8643785804277</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>52.06341186861589</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>8.321493021612</v>
+        <v>8.321493021612014</v>
       </c>
       <c r="S6" t="n">
-        <v>144.2088206736375</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1034,13 +1034,13 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1074,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>5.887845626696625</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>5.686931024057202</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>121.5357799573319</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>202.4057324704885</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>222.6471508178238</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>131.3839109156119</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>79.27858108972291</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>259.6580847920594</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1150,10 +1150,10 @@
         <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,13 +1186,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1296,13 +1296,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>65.5830047047553</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>213.1855630993294</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1426,7 +1426,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1435,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.4774956074563874</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1767,22 +1767,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -1827,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>15.09910835322229</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2010,19 +2010,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2061,13 +2061,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>185.4048731212358</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2247,16 +2247,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>115.4764219077142</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>5.890337106877586</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2478,16 +2478,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>18.49605685438785</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2721,10 +2721,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,13 +2766,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>177.6965697803346</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>181.6715686078781</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2851,7 +2851,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="30">
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>45.17596778974989</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3043,10 +3043,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3198,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3246,13 +3246,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>193.9313104494263</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3432,19 +3432,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>72.77126028643525</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>20.25102067617261</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3720,7 +3720,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.57516893522981</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4149,13 +4149,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>91.89996056624796</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>112.7304175246775</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>199.4030692042955</v>
+        <v>407.0717515820911</v>
       </c>
       <c r="C2" t="n">
-        <v>199.4030692042955</v>
+        <v>407.0717515820911</v>
       </c>
       <c r="D2" t="n">
-        <v>199.4030692042955</v>
+        <v>407.0717515820911</v>
       </c>
       <c r="E2" t="n">
-        <v>199.4030692042955</v>
+        <v>217.6519665656065</v>
       </c>
       <c r="F2" t="n">
-        <v>192.4575684550921</v>
+        <v>28.2321815491218</v>
       </c>
       <c r="G2" t="n">
         <v>15.00204697330559</v>
@@ -4330,16 +4330,16 @@
         <v>15.00204697330559</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678478</v>
+        <v>21.033711606785</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058939</v>
+        <v>80.81213159058973</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079184</v>
+        <v>191.8743094079185</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644753</v>
+        <v>347.1218190644755</v>
       </c>
       <c r="N2" t="n">
         <v>509.4952041123828</v>
@@ -4348,34 +4348,34 @@
         <v>649.4845259985582</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020265</v>
+        <v>734.4611726020262</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652797</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="R2" t="n">
-        <v>738.622248520147</v>
+        <v>738.6222485201465</v>
       </c>
       <c r="S2" t="n">
-        <v>578.2426392372651</v>
+        <v>738.6222485201465</v>
       </c>
       <c r="T2" t="n">
-        <v>578.2426392372651</v>
+        <v>738.6222485201465</v>
       </c>
       <c r="U2" t="n">
-        <v>578.2426392372651</v>
+        <v>738.6222485201465</v>
       </c>
       <c r="V2" t="n">
-        <v>578.2426392372651</v>
+        <v>738.6222485201465</v>
       </c>
       <c r="W2" t="n">
-        <v>578.2426392372651</v>
+        <v>738.6222485201465</v>
       </c>
       <c r="X2" t="n">
-        <v>388.8228542207803</v>
+        <v>738.6222485201465</v>
       </c>
       <c r="Y2" t="n">
-        <v>199.4030692042955</v>
+        <v>549.2024635036619</v>
       </c>
     </row>
     <row r="3">
@@ -4415,43 +4415,43 @@
         <v>67.13418877024208</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772649</v>
+        <v>183.5548280772648</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140244</v>
+        <v>338.7690911140243</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546601</v>
+        <v>512.5000587546599</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476349</v>
+        <v>649.2101578476345</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017063</v>
+        <v>739.5989987017058</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652797</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="R3" t="n">
-        <v>722.9192922843278</v>
+        <v>722.9192922843273</v>
       </c>
       <c r="S3" t="n">
-        <v>583.26140202276</v>
+        <v>722.9192922843273</v>
       </c>
       <c r="T3" t="n">
-        <v>393.8416170062752</v>
+        <v>722.9192922843273</v>
       </c>
       <c r="U3" t="n">
-        <v>204.4218319897904</v>
+        <v>722.9192922843273</v>
       </c>
       <c r="V3" t="n">
-        <v>15.00204697330559</v>
+        <v>533.4995072678427</v>
       </c>
       <c r="W3" t="n">
-        <v>15.00204697330559</v>
+        <v>344.079722251358</v>
       </c>
       <c r="X3" t="n">
-        <v>15.00204697330559</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="Y3" t="n">
         <v>15.00204697330559</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>320.1021922763682</v>
+        <v>482.4987760860273</v>
       </c>
       <c r="C4" t="n">
-        <v>320.1021922763682</v>
+        <v>313.5625931581204</v>
       </c>
       <c r="D4" t="n">
-        <v>169.9855528640325</v>
+        <v>313.5625931581204</v>
       </c>
       <c r="E4" t="n">
-        <v>169.9855528640325</v>
+        <v>165.6494995757273</v>
       </c>
       <c r="F4" t="n">
-        <v>169.9855528640325</v>
+        <v>165.6494995757273</v>
       </c>
       <c r="G4" t="n">
-        <v>169.9855528640325</v>
+        <v>165.6494995757273</v>
       </c>
       <c r="H4" t="n">
-        <v>15.00204697330559</v>
+        <v>165.6494995757273</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330559</v>
+        <v>38.67250990818524</v>
       </c>
       <c r="J4" t="n">
         <v>15.00204697330559</v>
       </c>
       <c r="K4" t="n">
-        <v>43.17590452428101</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L4" t="n">
-        <v>216.0634826394161</v>
+        <v>187.8896250884406</v>
       </c>
       <c r="M4" t="n">
-        <v>401.7138139340728</v>
+        <v>373.5399563830972</v>
       </c>
       <c r="N4" t="n">
-        <v>587.3641452287295</v>
+        <v>471.6341805242513</v>
       </c>
       <c r="O4" t="n">
-        <v>750.1023486652797</v>
+        <v>634.3723839608015</v>
       </c>
       <c r="P4" t="n">
-        <v>750.1023486652797</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="Q4" t="n">
-        <v>750.1023486652797</v>
+        <v>746.7254979846269</v>
       </c>
       <c r="R4" t="n">
-        <v>750.1023486652797</v>
+        <v>746.7254979846269</v>
       </c>
       <c r="S4" t="n">
-        <v>750.1023486652797</v>
+        <v>746.7254979846269</v>
       </c>
       <c r="T4" t="n">
-        <v>560.6825636487949</v>
+        <v>746.7254979846269</v>
       </c>
       <c r="U4" t="n">
-        <v>371.2627786323102</v>
+        <v>671.9185611025119</v>
       </c>
       <c r="V4" t="n">
-        <v>320.1021922763682</v>
+        <v>482.4987760860273</v>
       </c>
       <c r="W4" t="n">
-        <v>320.1021922763682</v>
+        <v>482.4987760860273</v>
       </c>
       <c r="X4" t="n">
-        <v>320.1021922763682</v>
+        <v>482.4987760860273</v>
       </c>
       <c r="Y4" t="n">
-        <v>320.1021922763682</v>
+        <v>482.4987760860273</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>714.6122027118934</v>
+        <v>1396.919737815023</v>
       </c>
       <c r="C5" t="n">
-        <v>714.6122027118934</v>
+        <v>1044.162228265775</v>
       </c>
       <c r="D5" t="n">
-        <v>714.6122027118934</v>
+        <v>691.4047187165263</v>
       </c>
       <c r="E5" t="n">
-        <v>361.854693162645</v>
+        <v>393.3607893972467</v>
       </c>
       <c r="F5" t="n">
-        <v>354.9091924134416</v>
+        <v>40.60327984799844</v>
       </c>
       <c r="G5" t="n">
-        <v>342.2443073217436</v>
+        <v>27.93839475630045</v>
       </c>
       <c r="H5" t="n">
-        <v>27.93839475630047</v>
+        <v>27.93839475630045</v>
       </c>
       <c r="I5" t="n">
-        <v>27.93839475630047</v>
+        <v>27.93839475630045</v>
       </c>
       <c r="J5" t="n">
         <v>80.9902034087462</v>
@@ -4573,13 +4573,13 @@
         <v>211.2396305620536</v>
       </c>
       <c r="L5" t="n">
-        <v>409.7273242458671</v>
+        <v>409.727324245867</v>
       </c>
       <c r="M5" t="n">
-        <v>662.2525653973837</v>
+        <v>662.2525653973835</v>
       </c>
       <c r="N5" t="n">
-        <v>923.4777373365762</v>
+        <v>923.4777373365758</v>
       </c>
       <c r="O5" t="n">
         <v>1156.809998477534</v>
@@ -4594,25 +4594,25 @@
         <v>1396.919737815023</v>
       </c>
       <c r="S5" t="n">
-        <v>1249.420751151486</v>
+        <v>1396.919737815023</v>
       </c>
       <c r="T5" t="n">
-        <v>1067.369712261142</v>
+        <v>1396.919737815023</v>
       </c>
       <c r="U5" t="n">
-        <v>1067.369712261142</v>
+        <v>1396.919737815023</v>
       </c>
       <c r="V5" t="n">
-        <v>1067.369712261142</v>
+        <v>1396.919737815023</v>
       </c>
       <c r="W5" t="n">
-        <v>714.6122027118934</v>
+        <v>1396.919737815023</v>
       </c>
       <c r="X5" t="n">
-        <v>714.6122027118934</v>
+        <v>1396.919737815023</v>
       </c>
       <c r="Y5" t="n">
-        <v>714.6122027118934</v>
+        <v>1396.919737815023</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>377.4836131354619</v>
+        <v>550.4496965895876</v>
       </c>
       <c r="C6" t="n">
-        <v>203.0305838543349</v>
+        <v>375.9966673084606</v>
       </c>
       <c r="D6" t="n">
-        <v>165.1751407971365</v>
+        <v>227.0622576472093</v>
       </c>
       <c r="E6" t="n">
-        <v>165.1751407971365</v>
+        <v>227.0622576472093</v>
       </c>
       <c r="F6" t="n">
-        <v>165.1751407971365</v>
+        <v>80.52769967409429</v>
       </c>
       <c r="G6" t="n">
-        <v>27.93839475630047</v>
+        <v>80.52769967409429</v>
       </c>
       <c r="H6" t="n">
-        <v>27.93839475630047</v>
+        <v>27.93839475630045</v>
       </c>
       <c r="I6" t="n">
-        <v>27.93839475630047</v>
+        <v>27.93839475630045</v>
       </c>
       <c r="J6" t="n">
-        <v>40.71784159143083</v>
+        <v>40.71784159143078</v>
       </c>
       <c r="K6" t="n">
-        <v>140.7147764379372</v>
+        <v>140.7147764379371</v>
       </c>
       <c r="L6" t="n">
-        <v>321.4955368824496</v>
+        <v>321.4955368824495</v>
       </c>
       <c r="M6" t="n">
-        <v>551.8150256158615</v>
+        <v>551.8150256158613</v>
       </c>
       <c r="N6" t="n">
-        <v>802.6390307947661</v>
+        <v>802.6390307947657</v>
       </c>
       <c r="O6" t="n">
-        <v>1009.87419788785</v>
+        <v>1009.874197887849</v>
       </c>
       <c r="P6" t="n">
-        <v>1156.865623411834</v>
+        <v>1156.865623411833</v>
       </c>
       <c r="Q6" t="n">
         <v>1396.919737815023</v>
       </c>
       <c r="R6" t="n">
-        <v>1388.514189308345</v>
+        <v>1388.514189308344</v>
       </c>
       <c r="S6" t="n">
-        <v>1242.848713880428</v>
+        <v>1388.514189308344</v>
       </c>
       <c r="T6" t="n">
-        <v>1242.848713880428</v>
+        <v>1388.514189308344</v>
       </c>
       <c r="U6" t="n">
-        <v>1242.848713880428</v>
+        <v>1388.514189308344</v>
       </c>
       <c r="V6" t="n">
-        <v>1007.696605648685</v>
+        <v>1388.514189308344</v>
       </c>
       <c r="W6" t="n">
-        <v>753.4592489204838</v>
+        <v>1134.276832580142</v>
       </c>
       <c r="X6" t="n">
-        <v>753.4592489204838</v>
+        <v>926.4253323746095</v>
       </c>
       <c r="Y6" t="n">
-        <v>545.6989501555299</v>
+        <v>718.6650336096557</v>
       </c>
     </row>
     <row r="7">
@@ -4701,43 +4701,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>181.7988071535387</v>
+        <v>647.5386329486215</v>
       </c>
       <c r="C7" t="n">
-        <v>181.7988071535387</v>
+        <v>478.6024500207146</v>
       </c>
       <c r="D7" t="n">
-        <v>181.7988071535387</v>
+        <v>328.4858106083789</v>
       </c>
       <c r="E7" t="n">
-        <v>33.88571357114554</v>
+        <v>180.5727170259858</v>
       </c>
       <c r="F7" t="n">
-        <v>33.88571357114554</v>
+        <v>33.6827695280754</v>
       </c>
       <c r="G7" t="n">
-        <v>33.88571357114554</v>
+        <v>33.6827695280754</v>
       </c>
       <c r="H7" t="n">
-        <v>33.88571357114554</v>
+        <v>33.6827695280754</v>
       </c>
       <c r="I7" t="n">
-        <v>27.93839475630047</v>
+        <v>33.6827695280754</v>
       </c>
       <c r="J7" t="n">
-        <v>27.93839475630047</v>
+        <v>27.93839475630045</v>
       </c>
       <c r="K7" t="n">
-        <v>148.5233105874692</v>
+        <v>148.5233105874691</v>
       </c>
       <c r="L7" t="n">
         <v>358.3569215208641</v>
       </c>
       <c r="M7" t="n">
-        <v>589.9861665014278</v>
+        <v>589.9861665014276</v>
       </c>
       <c r="N7" t="n">
-        <v>821.5424021750252</v>
+        <v>821.542402175025</v>
       </c>
       <c r="O7" t="n">
         <v>1019.405768767886</v>
@@ -4749,28 +4749,28 @@
         <v>1182.690698049272</v>
       </c>
       <c r="R7" t="n">
-        <v>1059.927283950957</v>
+        <v>1182.690698049272</v>
       </c>
       <c r="S7" t="n">
-        <v>855.4770491322819</v>
+        <v>1182.690698049272</v>
       </c>
       <c r="T7" t="n">
-        <v>630.5809371950861</v>
+        <v>1182.690698049272</v>
       </c>
       <c r="U7" t="n">
-        <v>630.5809371950861</v>
+        <v>1182.690698049272</v>
       </c>
       <c r="V7" t="n">
-        <v>630.5809371950861</v>
+        <v>1182.690698049272</v>
       </c>
       <c r="W7" t="n">
-        <v>630.5809371950861</v>
+        <v>1182.690698049272</v>
       </c>
       <c r="X7" t="n">
-        <v>402.5913862970688</v>
+        <v>1049.979676922391</v>
       </c>
       <c r="Y7" t="n">
-        <v>181.7988071535387</v>
+        <v>829.1870977788612</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>906.1570541554031</v>
+        <v>1059.365742829029</v>
       </c>
       <c r="C8" t="n">
-        <v>826.0776793172992</v>
+        <v>690.403225888617</v>
       </c>
       <c r="D8" t="n">
-        <v>826.0776793172992</v>
+        <v>332.1375272818665</v>
       </c>
       <c r="E8" t="n">
-        <v>440.2894267190549</v>
+        <v>69.85663355251367</v>
       </c>
       <c r="F8" t="n">
-        <v>433.3439259698515</v>
+        <v>62.9111328033102</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345444</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J8" t="n">
         <v>187.5281822362819</v>
@@ -4810,46 +4810,46 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T8" t="n">
-        <v>2353.59368700598</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U8" t="n">
-        <v>2353.59368700598</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="V8" t="n">
-        <v>2022.530799662409</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="W8" t="n">
-        <v>1669.762144392295</v>
+        <v>2209.570673130042</v>
       </c>
       <c r="X8" t="n">
-        <v>1296.296386131215</v>
+        <v>1836.104914868962</v>
       </c>
       <c r="Y8" t="n">
-        <v>906.1570541554031</v>
+        <v>1445.96558289315</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966398</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155128</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542614</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488059</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756909</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182533</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057878</v>
+        <v>71.67401812058006</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J9" t="n">
-        <v>168.0008189145195</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380223</v>
+        <v>560.1394111735143</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694941</v>
+        <v>854.8429682049862</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828714</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.793729425659</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601821</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.02341329261</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S9" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.617474780097</v>
       </c>
       <c r="T9" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610846175227</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047139</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.368633815396</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087195</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881662</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519478116707</v>
+        <v>1099.519478116708</v>
       </c>
     </row>
     <row r="10">
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>790.6765725771249</v>
+        <v>939.770065904978</v>
       </c>
       <c r="C10" t="n">
-        <v>621.7403896492181</v>
+        <v>770.8338829770711</v>
       </c>
       <c r="D10" t="n">
-        <v>621.7403896492181</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="E10" t="n">
-        <v>473.8272960668249</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F10" t="n">
         <v>473.8272960668249</v>
@@ -4956,13 +4956,13 @@
         <v>305.8408313751036</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386097</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312203</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020476</v>
@@ -4971,7 +4971,7 @@
         <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4983,31 +4983,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>1570.200660776765</v>
       </c>
       <c r="V10" t="n">
-        <v>1636.446120074497</v>
+        <v>1570.200660776765</v>
       </c>
       <c r="W10" t="n">
-        <v>1421.107167448912</v>
+        <v>1570.200660776765</v>
       </c>
       <c r="X10" t="n">
-        <v>1193.117616550895</v>
+        <v>1342.211109878748</v>
       </c>
       <c r="Y10" t="n">
-        <v>972.3250374073647</v>
+        <v>1121.418530735218</v>
       </c>
     </row>
     <row r="11">
@@ -5038,25 +5038,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075793</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5083,7 +5083,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5117,28 +5117,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5226,25 +5226,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1098.667160263527</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5260,37 +5260,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5363,19 +5363,19 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>671.2000270096659</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M15" t="n">
-        <v>1268.578514636218</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>1896.176478190825</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>788.0191461778176</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
@@ -5475,13 +5475,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1418.449741049605</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1190.460190151587</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>969.6676110080573</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5509,25 +5509,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5597,19 +5597,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>484.8243144841095</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>980.1499206998682</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
-        <v>1577.52840832642</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5709,16 +5709,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1688.385853854706</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5749,16 +5749,16 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014778</v>
@@ -5767,7 +5767,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5828,28 +5828,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1016.58045691144</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C22" t="n">
-        <v>847.6442739835331</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711974</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888043</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5937,25 +5937,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T22" t="n">
-        <v>2191.112710026075</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U22" t="n">
-        <v>2191.112710026075</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V22" t="n">
-        <v>1936.428221820188</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W22" t="n">
-        <v>1647.011051783227</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X22" t="n">
-        <v>1419.02150088521</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y22" t="n">
-        <v>1198.22892174168</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="23">
@@ -5989,19 +5989,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6065,25 +6065,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3044.370838283061</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>3025.687952571559</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>2875.571313159223</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>2875.571313159223</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>2728.681365661313</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4690.833152398593</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>4507.978318053498</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>4507.978318053498</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>4218.903091397696</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>3964.218603191809</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>3674.801433154848</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>3446.811882256831</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>3226.019303113301</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6214,7 +6214,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6223,25 +6223,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6302,25 +6302,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3260.450525729772</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C28" t="n">
-        <v>3091.514342801865</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D28" t="n">
-        <v>2941.39770338953</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>2793.484609807137</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>2646.594662309226</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>2479.398563024106</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>4471.231687421535</v>
+        <v>2267.47159895366</v>
       </c>
       <c r="U28" t="n">
-        <v>4182.156460765733</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V28" t="n">
-        <v>3998.64982580828</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W28" t="n">
-        <v>3709.23265577132</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X28" t="n">
-        <v>3481.243104873302</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y28" t="n">
-        <v>3260.450525729772</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="29">
@@ -6466,16 +6466,16 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C30" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D30" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G30" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>2231.588527385791</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>2565.513299557012</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>3060.83890577277</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>3658.217393399322</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>4285.815356953929</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>4285.815356953929</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>4420.931837070599</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S30" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T30" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U30" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V30" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W30" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X30" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y30" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="31">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6648,25 +6648,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2334.285089135946</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2334.285089135946</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2045.209862480144</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1790.525374274257</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1501.108204237296</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6691,7 +6691,7 @@
         <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6703,16 +6703,16 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6776,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>800.6374272687975</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6885,25 +6885,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1492.495641279528</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1203.078471242567</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1203.078471242567</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>982.2858920990373</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6919,37 +6919,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7019,25 +7019,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1337.934786622704</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1889.844516861991</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>733.4550657171301</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>564.5188827892232</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>564.5188827892232</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>416.6057892068301</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7125,22 +7125,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>915.1035305473698</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7156,28 +7156,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7259,19 +7259,19 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>716.6687843969308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>929.7309773356195</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7368,16 +7368,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>950.1865537761979</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7402,31 +7402,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>913.2907898187001</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>931.4710609784063</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>762.5348780504994</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7602,19 +7602,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1205.369871369643</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>984.5772922261132</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7624,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263527</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356195</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7833,25 +7833,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603201</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U46" t="n">
-        <v>1938.286391947399</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V46" t="n">
-        <v>1683.601903741512</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W46" t="n">
-        <v>1394.184733704551</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.315625093766</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y46" t="n">
-        <v>1280.315625093766</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265839</v>
+        <v>15.37922103265842</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8139,22 +8139,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>42.56275186471075</v>
+        <v>14.10430989402855</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>171.4142040457084</v>
+        <v>171.4142040457083</v>
       </c>
       <c r="N4" t="n">
-        <v>163.8604018711117</v>
+        <v>75.41988959484645</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709386</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>41.92993463898938</v>
+        <v>41.92993463898941</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>193.6499349213312</v>
+        <v>193.649934921331</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>54.9531451156648</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>265.030432851515</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.1071577446384</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23655,22 +23655,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>271.4238899833687</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23898,19 +23898,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23949,13 +23949,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>40.30478226780136</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24135,16 +24135,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>30.95754073885493</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24177,13 +24177,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>211.5151132204107</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24366,16 +24366,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>148.75076424424</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24609,10 +24609,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,13 +24654,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>39.70888054695368</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>70.46607471594987</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,10 +24888,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>135.8503182118947</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25086,7 +25086,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,13 +25134,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>58.20633287440168</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25320,19 +25320,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>72.64978773649599</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>159.5809595057647</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>127.2568112467075</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,10 +26073,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>125.5054897610403</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>112.9792378643596</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>779598.0929707646</v>
+        <v>779598.0929707644</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>779598.0929707646</v>
+        <v>779598.0929707644</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>779598.0929707646</v>
+        <v>779598.0929707644</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>779598.0929707645</v>
+        <v>779598.0929707644</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>779598.0929707645</v>
+        <v>779598.0929707644</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>779598.0929707645</v>
+        <v>779598.0929707644</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>779598.0929707645</v>
+        <v>779598.0929707644</v>
       </c>
     </row>
   </sheetData>
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914264</v>
+        <v>656833.415891426</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914267</v>
+        <v>656833.4158914265</v>
       </c>
       <c r="D2" t="n">
         <v>656833.4158914272</v>
@@ -26331,31 +26331,31 @@
         <v>645717.2797520049</v>
       </c>
       <c r="H2" t="n">
+        <v>645717.2797520047</v>
+      </c>
+      <c r="I2" t="n">
+        <v>645717.2797520048</v>
+      </c>
+      <c r="J2" t="n">
+        <v>645717.2797520047</v>
+      </c>
+      <c r="K2" t="n">
+        <v>645717.2797520047</v>
+      </c>
+      <c r="L2" t="n">
+        <v>645717.2797520047</v>
+      </c>
+      <c r="M2" t="n">
+        <v>645717.2797520047</v>
+      </c>
+      <c r="N2" t="n">
         <v>645717.2797520049</v>
       </c>
-      <c r="I2" t="n">
-        <v>645717.2797520052</v>
-      </c>
-      <c r="J2" t="n">
-        <v>645717.2797520054</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="O2" t="n">
+        <v>645717.2797520047</v>
+      </c>
+      <c r="P2" t="n">
         <v>645717.2797520049</v>
-      </c>
-      <c r="L2" t="n">
-        <v>645717.2797520048</v>
-      </c>
-      <c r="M2" t="n">
-        <v>645717.2797520051</v>
-      </c>
-      <c r="N2" t="n">
-        <v>645717.2797520052</v>
-      </c>
-      <c r="O2" t="n">
-        <v>645717.279752005</v>
-      </c>
-      <c r="P2" t="n">
-        <v>645717.2797520047</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208454</v>
+        <v>591356.9025208453</v>
       </c>
       <c r="C3" t="n">
         <v>178997.5061427119</v>
       </c>
       <c r="D3" t="n">
-        <v>301519.8707731207</v>
+        <v>301519.870773121</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245457</v>
+        <v>507485.4416245456</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854456</v>
+        <v>49064.94472854459</v>
       </c>
       <c r="K3" t="n">
-        <v>41617.52445267283</v>
+        <v>41617.5244526728</v>
       </c>
       <c r="L3" t="n">
-        <v>73739.30240019536</v>
+        <v>73739.30240019553</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>132607.2937289266</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,13 +26426,13 @@
         <v>145155.2306979382</v>
       </c>
       <c r="E4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="F4" t="n">
         <v>13606.80811184274</v>
       </c>
       <c r="G4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="H4" t="n">
         <v>13606.80811184274</v>
@@ -26453,7 +26453,7 @@
         <v>13606.80811184274</v>
       </c>
       <c r="N4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="O4" t="n">
         <v>13606.80811184274</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161357</v>
+        <v>56985.80041161356</v>
       </c>
       <c r="C5" t="n">
-        <v>69851.9793002918</v>
+        <v>69851.97930029177</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-268980.1354717457</v>
+        <v>-268980.135471746</v>
       </c>
       <c r="C6" t="n">
-        <v>178395.7914677263</v>
+        <v>178395.7914677261</v>
       </c>
       <c r="D6" t="n">
-        <v>117220.5419805236</v>
+        <v>117220.5419805233</v>
       </c>
       <c r="E6" t="n">
-        <v>23502.5001917093</v>
+        <v>23155.12093735255</v>
       </c>
       <c r="F6" t="n">
-        <v>530987.9418162551</v>
+        <v>530640.5625618981</v>
       </c>
       <c r="G6" t="n">
-        <v>530987.9418162551</v>
+        <v>530640.5625618981</v>
       </c>
       <c r="H6" t="n">
-        <v>530987.9418162551</v>
+        <v>530640.5625618979</v>
       </c>
       <c r="I6" t="n">
-        <v>530987.9418162555</v>
+        <v>530640.562561898</v>
       </c>
       <c r="J6" t="n">
-        <v>481922.9970877109</v>
+        <v>481575.6178333533</v>
       </c>
       <c r="K6" t="n">
-        <v>489370.4173635822</v>
+        <v>489023.038109225</v>
       </c>
       <c r="L6" t="n">
-        <v>457248.6394160595</v>
+        <v>456901.2601617023</v>
       </c>
       <c r="M6" t="n">
-        <v>398380.6480873286</v>
+        <v>398033.2688329712</v>
       </c>
       <c r="N6" t="n">
-        <v>530987.9418162555</v>
+        <v>530640.5625618981</v>
       </c>
       <c r="O6" t="n">
-        <v>530987.9418162552</v>
+        <v>530640.5625618979</v>
       </c>
       <c r="P6" t="n">
-        <v>530987.9418162549</v>
+        <v>530640.5625618981</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129045</v>
       </c>
       <c r="C3" t="n">
-        <v>687.6696919955705</v>
+        <v>687.6696919955704</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="C4" t="n">
-        <v>349.2299344537558</v>
+        <v>349.2299344537557</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129045</v>
       </c>
       <c r="C3" t="n">
         <v>139.1997510826659</v>
       </c>
       <c r="D3" t="n">
-        <v>246.3952001219689</v>
+        <v>246.3952001219691</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241344</v>
+        <v>433.9106082241343</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="C4" t="n">
         <v>161.7043472874359</v>
       </c>
       <c r="D4" t="n">
-        <v>291.3548976462829</v>
+        <v>291.3548976462834</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996093</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663197</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="K4" t="n">
-        <v>161.704347287436</v>
+        <v>161.7043472874359</v>
       </c>
       <c r="L4" t="n">
-        <v>291.3548976462828</v>
+        <v>291.3548976462835</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996093</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="K4" t="n">
         <v>161.7043472874359</v>
       </c>
       <c r="L4" t="n">
-        <v>291.3548976462829</v>
+        <v>291.3548976462834</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996093</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>242.0244368611255</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27387,13 +27387,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>194.404782905942</v>
       </c>
       <c r="F2" t="n">
+        <v>219.3504585753916</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
-      </c>
-      <c r="G2" t="n">
-        <v>237.4168669630894</v>
       </c>
       <c r="H2" t="n">
         <v>316.8938261062223</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
         <v>213.4438810562068</v>
@@ -27444,10 +27444,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>182.2055135121491</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>198.7123514897337</v>
+        <v>198.7123514897338</v>
       </c>
     </row>
     <row r="3">
@@ -27478,7 +27478,7 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>48.77881175550657</v>
+        <v>48.77881175550658</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27508,25 +27508,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>11.50893333199753</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>7.884010625681313</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U3" t="n">
-        <v>38.338181243771</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>45.27499998310535</v>
+        <v>45.27499998310546</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>64.1693959945998</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>67.5116738445254</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>18.15710861098455</v>
       </c>
     </row>
     <row r="4">
@@ -27539,13 +27539,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27554,13 +27554,13 @@
         <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
-        <v>125.7072197708667</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>23.43375830553084</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845801</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -27590,13 +27590,13 @@
         <v>206.7802557954962</v>
       </c>
       <c r="T4" t="n">
-        <v>36.19408632378017</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
-        <v>98.73949432713036</v>
+        <v>212.2062139801564</v>
       </c>
       <c r="V4" t="n">
-        <v>201.4886628314455</v>
+        <v>64.61205615750819</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27618,22 +27618,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>16.04295731725188</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>5.453107166927282</v>
       </c>
       <c r="E5" t="n">
-        <v>32.70043561850594</v>
+        <v>86.86688004617497</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>57.64611128795576</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>311.1628534397887</v>
       </c>
       <c r="I5" t="n">
         <v>103.8974541908713</v>
@@ -27666,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>146.0239967969024</v>
       </c>
       <c r="T5" t="n">
-        <v>30.76371673420618</v>
+        <v>210.9942452356465</v>
       </c>
       <c r="U5" t="n">
         <v>251.1244928058882</v>
@@ -27678,7 +27678,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0.01103426365716587</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27700,19 +27700,19 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>109.9681769380124</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.8643785804277</v>
       </c>
       <c r="H6" t="n">
-        <v>97.95007950277716</v>
+        <v>45.88666763416126</v>
       </c>
       <c r="I6" t="n">
         <v>38.47015094419594</v>
@@ -27745,7 +27745,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>144.2088206736375</v>
       </c>
       <c r="T6" t="n">
         <v>194.2027622142185</v>
@@ -27754,13 +27754,13 @@
         <v>225.8440703321075</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27773,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.7509192581389</v>
@@ -27794,10 +27794,10 @@
         <v>151.2019108882319</v>
       </c>
       <c r="I7" t="n">
-        <v>112.270640101851</v>
+        <v>118.1584857285477</v>
       </c>
       <c r="J7" t="n">
-        <v>5.686931024057188</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>121.535779957332</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>202.4057324704885</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>222.6471508178238</v>
       </c>
       <c r="U7" t="n">
         <v>286.2513897146553</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>94.32574447342523</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>285.9943106812847</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>122.2722852802024</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27870,10 +27870,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,13 +27906,13 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28016,13 +28016,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28067,13 +28067,13 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>220.6441494164453</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>73.33743523726156</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -31041,31 +31041,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077002</v>
+        <v>2.204904285077001</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954485</v>
+        <v>22.58097600954484</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043118</v>
+        <v>85.00457245043117</v>
       </c>
       <c r="J2" t="n">
         <v>187.1384950655543</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528639</v>
+        <v>280.4720934528638</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672893</v>
+        <v>347.9504329672891</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470274</v>
+        <v>387.1618995470272</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470024</v>
+        <v>393.4265838470023</v>
       </c>
       <c r="O2" t="n">
-        <v>371.501566862268</v>
+        <v>371.5015668622679</v>
       </c>
       <c r="P2" t="n">
         <v>317.0679923244294</v>
@@ -31077,10 +31077,10 @@
         <v>138.5038187974683</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619223</v>
+        <v>50.24425639619221</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924579</v>
+        <v>9.651968507924577</v>
       </c>
       <c r="U2" t="n">
         <v>0.1763923428061601</v>
@@ -31123,7 +31123,7 @@
         <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575676</v>
+        <v>11.39368688575675</v>
       </c>
       <c r="I3" t="n">
         <v>40.6178210959085</v>
@@ -31132,7 +31132,7 @@
         <v>111.4584056340083</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621737</v>
+        <v>190.5001680621736</v>
       </c>
       <c r="L3" t="n">
         <v>256.1509851405032</v>
@@ -31141,7 +31141,7 @@
         <v>298.9161177975329</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829654</v>
+        <v>306.8275379829653</v>
       </c>
       <c r="O3" t="n">
         <v>280.6872536292673</v>
@@ -31150,19 +31150,19 @@
         <v>225.2762668628872</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936715</v>
+        <v>150.5912184936714</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550075</v>
+        <v>73.24660833550074</v>
       </c>
       <c r="S3" t="n">
         <v>21.9129264128882</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820369</v>
+        <v>4.755130902820368</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.07761367088390161</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445819</v>
+        <v>0.9890441557445817</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620016</v>
+        <v>8.793501675620014</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639162</v>
+        <v>29.74325515639161</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114193</v>
+        <v>69.92542181114192</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765069</v>
+        <v>114.9089482765068</v>
       </c>
       <c r="L4" t="n">
-        <v>147.0438920276991</v>
+        <v>147.043892027699</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682166</v>
+        <v>155.0371670682165</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604415</v>
+        <v>151.3507297604414</v>
       </c>
       <c r="O4" t="n">
         <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820538</v>
+        <v>119.6203949820537</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784858</v>
+        <v>82.81896107784857</v>
       </c>
       <c r="R4" t="n">
-        <v>44.4710217664791</v>
+        <v>44.47102176647909</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147603</v>
+        <v>17.23634224147602</v>
       </c>
       <c r="T4" t="n">
         <v>4.225915938181394</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.05394786304061361</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31287,25 +31287,25 @@
         <v>106.5784353795346</v>
       </c>
       <c r="J5" t="n">
-        <v>234.6335900342073</v>
+        <v>234.6335900342072</v>
       </c>
       <c r="K5" t="n">
-        <v>351.6549289776143</v>
+        <v>351.6549289776142</v>
       </c>
       <c r="L5" t="n">
         <v>436.2590348526271</v>
       </c>
       <c r="M5" t="n">
-        <v>485.422234390421</v>
+        <v>485.4222343904208</v>
       </c>
       <c r="N5" t="n">
-        <v>493.2768736361795</v>
+        <v>493.2768736361793</v>
       </c>
       <c r="O5" t="n">
-        <v>465.7873640893213</v>
+        <v>465.7873640893212</v>
       </c>
       <c r="P5" t="n">
-        <v>397.5387388787057</v>
+        <v>397.5387388787056</v>
       </c>
       <c r="Q5" t="n">
         <v>298.5350369909011</v>
@@ -31314,13 +31314,13 @@
         <v>173.6556031751427</v>
       </c>
       <c r="S5" t="n">
-        <v>62.99607278934298</v>
+        <v>62.99607278934297</v>
       </c>
       <c r="T5" t="n">
         <v>12.10160432848486</v>
       </c>
       <c r="U5" t="n">
-        <v>0.221160101948324</v>
+        <v>0.2211601019483239</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31360,10 +31360,10 @@
         <v>1.479138582782925</v>
       </c>
       <c r="H6" t="n">
-        <v>14.28536473371931</v>
+        <v>14.2853647337193</v>
       </c>
       <c r="I6" t="n">
-        <v>50.92648190721914</v>
+        <v>50.92648190721913</v>
       </c>
       <c r="J6" t="n">
         <v>139.746158823364</v>
@@ -31372,34 +31372,34 @@
         <v>238.84844386982</v>
       </c>
       <c r="L6" t="n">
-        <v>321.1612085117049</v>
+        <v>321.1612085117048</v>
       </c>
       <c r="M6" t="n">
-        <v>374.7799821375859</v>
+        <v>374.7799821375858</v>
       </c>
       <c r="N6" t="n">
-        <v>384.6992930721258</v>
+        <v>384.6992930721257</v>
       </c>
       <c r="O6" t="n">
         <v>351.9246960536199</v>
       </c>
       <c r="P6" t="n">
-        <v>282.4505948122939</v>
+        <v>282.4505948122938</v>
       </c>
       <c r="Q6" t="n">
         <v>188.8107426022555</v>
       </c>
       <c r="R6" t="n">
-        <v>91.83634113103113</v>
+        <v>91.83634113103112</v>
       </c>
       <c r="S6" t="n">
-        <v>27.47435043020037</v>
+        <v>27.47435043020036</v>
       </c>
       <c r="T6" t="n">
-        <v>5.961966480603104</v>
+        <v>5.961966480603103</v>
       </c>
       <c r="U6" t="n">
-        <v>0.09731174886729775</v>
+        <v>0.09731174886729774</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,10 +31442,10 @@
         <v>11.02526161920768</v>
       </c>
       <c r="I7" t="n">
-        <v>37.29198919871062</v>
+        <v>37.29198919871061</v>
       </c>
       <c r="J7" t="n">
-        <v>87.67224909261559</v>
+        <v>87.67224909261557</v>
       </c>
       <c r="K7" t="n">
         <v>144.0724371098916</v>
@@ -31454,10 +31454,10 @@
         <v>184.3631170966485</v>
       </c>
       <c r="M7" t="n">
-        <v>194.385057361961</v>
+        <v>194.3850573619609</v>
       </c>
       <c r="N7" t="n">
-        <v>189.7630151698598</v>
+        <v>189.7630151698597</v>
       </c>
       <c r="O7" t="n">
         <v>175.2768585433956</v>
@@ -31475,10 +31475,10 @@
         <v>21.61086556648374</v>
       </c>
       <c r="T7" t="n">
-        <v>5.298438610457672</v>
+        <v>5.298438610457671</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06763964183562995</v>
+        <v>0.06763964183562994</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31521,28 +31521,28 @@
         <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J8" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L8" t="n">
         <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O8" t="n">
         <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q8" t="n">
         <v>405.5015080147052</v>
@@ -31557,7 +31557,7 @@
         <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,7 +31594,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H9" t="n">
         <v>19.40387634380021</v>
@@ -31606,10 +31606,10 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040589</v>
@@ -31618,7 +31618,7 @@
         <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378626</v>
@@ -31630,10 +31630,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U9" t="n">
         <v>0.1321789941675764</v>
@@ -31679,19 +31679,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L10" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N10" t="n">
         <v>257.7559726067959</v>
@@ -31706,16 +31706,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31837,7 +31837,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31849,19 +31849,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32083,7 +32083,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>233.3139244897921</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32092,13 +32092,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32317,22 +32317,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>381.6404378718165</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32548,13 +32548,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32563,16 +32563,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>290.6810969936921</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32785,13 +32785,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32800,13 +32800,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>375.1407109807906</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32943,7 +32943,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33022,13 +33022,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33037,13 +33037,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>375.1407109807906</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33262,7 +33262,7 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
@@ -33277,16 +33277,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>270.4557004614713</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33496,10 +33496,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
@@ -33508,13 +33508,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>597.1709559744729</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33739,7 +33739,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33748,19 +33748,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>531.2627466777524</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33909,7 +33909,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
         <v>790.8204499236507</v>
@@ -33979,22 +33979,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>277.4567226539314</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34207,34 +34207,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>318.3985571819322</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34392,7 +34392,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34444,10 +34444,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
@@ -34462,7 +34462,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>514.695376254093</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34471,7 +34471,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868052</v>
+        <v>6.092590538868023</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788333</v>
+        <v>60.38224240788327</v>
       </c>
       <c r="L2" t="n">
-        <v>112.184017997302</v>
+        <v>112.1840179973019</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197546</v>
+        <v>156.8156663197545</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504115</v>
+        <v>164.0135202504114</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405812</v>
+        <v>141.4033554405811</v>
       </c>
       <c r="P2" t="n">
-        <v>85.8349965691599</v>
+        <v>85.83499656915984</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065975</v>
+        <v>15.7991677406597</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781469</v>
+        <v>52.65872908781463</v>
       </c>
       <c r="L3" t="n">
         <v>117.596605360629</v>
@@ -34789,16 +34789,16 @@
         <v>156.7820838755146</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996321</v>
+        <v>175.485825899632</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848229</v>
+        <v>138.0910091848228</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855694</v>
+        <v>91.30185944855691</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764996</v>
+        <v>10.60944440764993</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>28.45844197068223</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>174.6339172880152</v>
       </c>
       <c r="M4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="N4" t="n">
-        <v>187.5255871663199</v>
+        <v>99.08507489005468</v>
       </c>
       <c r="O4" t="n">
         <v>164.382023673283</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>116.8989542469472</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>53.58768550752097</v>
+        <v>53.58768550752094</v>
       </c>
       <c r="K5" t="n">
-        <v>131.5650779326338</v>
+        <v>131.5650779326337</v>
       </c>
       <c r="L5" t="n">
-        <v>200.4926198826399</v>
+        <v>200.4926198826398</v>
       </c>
       <c r="M5" t="n">
-        <v>255.0760011631482</v>
+        <v>255.0760011631481</v>
       </c>
       <c r="N5" t="n">
-        <v>263.8638100395885</v>
+        <v>263.8638100395884</v>
       </c>
       <c r="O5" t="n">
-        <v>235.6891526676346</v>
+        <v>235.6891526676345</v>
       </c>
       <c r="P5" t="n">
         <v>166.3057431234361</v>
       </c>
       <c r="Q5" t="n">
-        <v>76.22934711645163</v>
+        <v>76.22934711645158</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>12.90853215669733</v>
+        <v>12.90853215669731</v>
       </c>
       <c r="K6" t="n">
         <v>101.007004895461</v>
@@ -35023,19 +35023,19 @@
         <v>182.6068287318307</v>
       </c>
       <c r="M6" t="n">
-        <v>232.6459482155676</v>
+        <v>232.6459482155675</v>
       </c>
       <c r="N6" t="n">
-        <v>253.3575809887925</v>
+        <v>253.3575809887924</v>
       </c>
       <c r="O6" t="n">
-        <v>209.3284516091755</v>
+        <v>209.3284516091754</v>
       </c>
       <c r="P6" t="n">
-        <v>148.4761873979637</v>
+        <v>148.4761873979636</v>
       </c>
       <c r="Q6" t="n">
-        <v>242.4789034375652</v>
+        <v>242.4789034375649</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,13 +35096,13 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>121.8029452840088</v>
+        <v>121.8029452840087</v>
       </c>
       <c r="L7" t="n">
-        <v>211.9531423569647</v>
+        <v>211.9531423569646</v>
       </c>
       <c r="M7" t="n">
-        <v>233.9689343238016</v>
+        <v>233.9689343238015</v>
       </c>
       <c r="N7" t="n">
         <v>233.8951875490883</v>
@@ -35114,7 +35114,7 @@
         <v>147.2581917617634</v>
       </c>
       <c r="Q7" t="n">
-        <v>17.67608023963675</v>
+        <v>17.67608023963673</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35175,28 +35175,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L8" t="n">
         <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O8" t="n">
         <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q8" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,13 +35251,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>117.9333660065822</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560634</v>
+        <v>451.0527332560635</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M9" t="n">
         <v>366.9313322820406</v>
@@ -35269,10 +35269,10 @@
         <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>514.7099619750473</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
@@ -35339,7 +35339,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N10" t="n">
         <v>301.8881449860245</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35497,19 +35497,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>274.2960242312443</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35731,7 +35731,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>94.75954470991793</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35740,13 +35740,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35965,22 +35965,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>243.7989988974575</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36211,16 +36211,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>159.3393849103587</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36448,13 +36448,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>243.7989988974573</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36591,7 +36591,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36685,13 +36685,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>243.7989988974573</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36925,16 +36925,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>136.4812930471411</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
@@ -37156,13 +37156,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>455.0369220524547</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37387,7 +37387,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37396,19 +37396,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>397.2883392634221</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37557,7 +37557,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
@@ -37627,22 +37627,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>138.9023428740572</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37800,7 +37800,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>176.2645232599139</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38110,7 +38110,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>372.0991318096486</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38119,7 +38119,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_21_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_21_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2603478.849193835</v>
+        <v>2605239.379496622</v>
       </c>
     </row>
     <row r="7">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>140.709404802355</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>187.5255871663198</v>
       </c>
       <c r="F2" t="n">
-        <v>187.5255871663198</v>
+        <v>140.709404802355</v>
       </c>
       <c r="G2" t="n">
         <v>13.09783323005805</v>
@@ -743,16 +743,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714239</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -797,16 +797,16 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>187.5255871663198</v>
+        <v>111.5456441849361</v>
       </c>
       <c r="W3" t="n">
         <v>187.5255871663198</v>
       </c>
       <c r="X3" t="n">
-        <v>138.2613113589521</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -819,13 +819,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>13.21398198403635</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -837,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>125.7072197708667</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>23.43375830553086</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>74.05886751329385</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="V4" t="n">
         <v>187.5255871663198</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
     </row>
     <row r="5">
@@ -898,19 +898,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>349.2299344537557</v>
+        <v>349.2299344537573</v>
       </c>
       <c r="D5" t="n">
-        <v>349.2299344537557</v>
+        <v>349.2299344537573</v>
       </c>
       <c r="E5" t="n">
-        <v>295.0634900260868</v>
+        <v>288.187444284377</v>
       </c>
       <c r="F5" t="n">
-        <v>349.2299344537557</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>12.538236240781</v>
+        <v>12.53823624078099</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>349.2299344537573</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -977,22 +977,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>58.64153133342802</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>52.06341186861589</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>8.321493021612014</v>
+        <v>8.321493021611843</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1031,10 +1031,10 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8440703321075</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>137.0708419396711</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>5.686931024057202</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>131.3839109156119</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1141,10 +1141,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>259.6580847920594</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>233.8447291789209</v>
       </c>
       <c r="G8" t="n">
         <v>11.54770277295399</v>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1296,7 +1296,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1305,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>33.37504173421795</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1347,16 +1347,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>65.5830047047553</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417123</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1545,7 +1545,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1615,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722605</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576172</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1773,13 +1773,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>27.02919805176109</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1821,13 +1821,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>142.3575218158273</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -2007,19 +2007,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>99.97427419833815</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2247,10 +2247,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>115.4764219077142</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>146.185049953102</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2481,13 +2481,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2721,13 +2721,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>51.3656974031032</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>177.6965697803346</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2964,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3249,7 +3249,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>148.0280580960833</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3280,10 +3280,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3426,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3900,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766865</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3994,7 +3994,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444144</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>91.89996056624796</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673027</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>407.0717515820911</v>
+        <v>359.7826784871772</v>
       </c>
       <c r="C2" t="n">
-        <v>407.0717515820911</v>
+        <v>359.7826784871772</v>
       </c>
       <c r="D2" t="n">
-        <v>407.0717515820911</v>
+        <v>359.7826784871772</v>
       </c>
       <c r="E2" t="n">
-        <v>217.6519665656065</v>
+        <v>170.3628934706926</v>
       </c>
       <c r="F2" t="n">
         <v>28.2321815491218</v>
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.00204697330559</v>
+        <v>448.0101957852228</v>
       </c>
       <c r="C3" t="n">
-        <v>15.00204697330559</v>
+        <v>448.0101957852228</v>
       </c>
       <c r="D3" t="n">
-        <v>15.00204697330559</v>
+        <v>299.0757861239715</v>
       </c>
       <c r="E3" t="n">
-        <v>15.00204697330559</v>
+        <v>299.0757861239715</v>
       </c>
       <c r="F3" t="n">
-        <v>15.00204697330559</v>
+        <v>152.5412281508565</v>
       </c>
       <c r="G3" t="n">
         <v>15.00204697330559</v>
@@ -4421,10 +4421,10 @@
         <v>338.7690911140243</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546599</v>
+        <v>512.50005875466</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476345</v>
+        <v>649.2101578476346</v>
       </c>
       <c r="P3" t="n">
         <v>739.5989987017058</v>
@@ -4433,28 +4433,28 @@
         <v>750.1023486652792</v>
       </c>
       <c r="R3" t="n">
-        <v>722.9192922843273</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="S3" t="n">
-        <v>722.9192922843273</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="T3" t="n">
-        <v>722.9192922843273</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="U3" t="n">
-        <v>722.9192922843273</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="V3" t="n">
-        <v>533.4995072678427</v>
+        <v>637.4299808017074</v>
       </c>
       <c r="W3" t="n">
-        <v>344.079722251358</v>
+        <v>448.0101957852228</v>
       </c>
       <c r="X3" t="n">
-        <v>204.4218319897903</v>
+        <v>448.0101957852228</v>
       </c>
       <c r="Y3" t="n">
-        <v>15.00204697330559</v>
+        <v>448.0101957852228</v>
       </c>
     </row>
     <row r="4">
@@ -4464,46 +4464,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>482.4987760860273</v>
+        <v>178.466142935173</v>
       </c>
       <c r="C4" t="n">
-        <v>313.5625931581204</v>
+        <v>165.1186863856413</v>
       </c>
       <c r="D4" t="n">
-        <v>313.5625931581204</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E4" t="n">
-        <v>165.6494995757273</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F4" t="n">
-        <v>165.6494995757273</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G4" t="n">
-        <v>165.6494995757273</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H4" t="n">
-        <v>165.6494995757273</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I4" t="n">
-        <v>38.67250990818524</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J4" t="n">
         <v>15.00204697330559</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330559</v>
+        <v>106.7151088594233</v>
       </c>
       <c r="L4" t="n">
-        <v>187.8896250884406</v>
+        <v>279.6026869745584</v>
       </c>
       <c r="M4" t="n">
-        <v>373.5399563830972</v>
+        <v>465.253018269215</v>
       </c>
       <c r="N4" t="n">
-        <v>471.6341805242513</v>
+        <v>587.3641452287291</v>
       </c>
       <c r="O4" t="n">
-        <v>634.3723839608015</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="P4" t="n">
         <v>750.1023486652792</v>
@@ -4521,19 +4521,19 @@
         <v>746.7254979846269</v>
       </c>
       <c r="U4" t="n">
-        <v>671.9185611025119</v>
+        <v>557.3057129681423</v>
       </c>
       <c r="V4" t="n">
-        <v>482.4987760860273</v>
+        <v>367.8859279516577</v>
       </c>
       <c r="W4" t="n">
-        <v>482.4987760860273</v>
+        <v>367.8859279516577</v>
       </c>
       <c r="X4" t="n">
-        <v>482.4987760860273</v>
+        <v>367.8859279516577</v>
       </c>
       <c r="Y4" t="n">
-        <v>482.4987760860273</v>
+        <v>178.466142935173</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1396.919737815023</v>
+        <v>1044.16222826578</v>
       </c>
       <c r="C5" t="n">
-        <v>1044.162228265775</v>
+        <v>691.4047187165297</v>
       </c>
       <c r="D5" t="n">
-        <v>691.4047187165263</v>
+        <v>338.6472091672799</v>
       </c>
       <c r="E5" t="n">
-        <v>393.3607893972467</v>
+        <v>47.54878059720204</v>
       </c>
       <c r="F5" t="n">
-        <v>40.60327984799844</v>
+        <v>40.60327984799856</v>
       </c>
       <c r="G5" t="n">
-        <v>27.93839475630045</v>
+        <v>27.93839475630059</v>
       </c>
       <c r="H5" t="n">
-        <v>27.93839475630045</v>
+        <v>27.93839475630059</v>
       </c>
       <c r="I5" t="n">
-        <v>27.93839475630045</v>
+        <v>27.93839475630059</v>
       </c>
       <c r="J5" t="n">
-        <v>80.9902034087462</v>
+        <v>80.99020340874677</v>
       </c>
       <c r="K5" t="n">
-        <v>211.2396305620536</v>
+        <v>211.2396305620548</v>
       </c>
       <c r="L5" t="n">
-        <v>409.727324245867</v>
+        <v>409.7273242458691</v>
       </c>
       <c r="M5" t="n">
-        <v>662.2525653973835</v>
+        <v>662.2525653973867</v>
       </c>
       <c r="N5" t="n">
-        <v>923.4777373365758</v>
+        <v>923.4777373365802</v>
       </c>
       <c r="O5" t="n">
-        <v>1156.809998477534</v>
+        <v>1156.809998477539</v>
       </c>
       <c r="P5" t="n">
-        <v>1321.452684169736</v>
+        <v>1321.452684169742</v>
       </c>
       <c r="Q5" t="n">
-        <v>1396.919737815023</v>
+        <v>1396.919737815029</v>
       </c>
       <c r="R5" t="n">
-        <v>1396.919737815023</v>
+        <v>1396.919737815029</v>
       </c>
       <c r="S5" t="n">
-        <v>1396.919737815023</v>
+        <v>1396.919737815029</v>
       </c>
       <c r="T5" t="n">
-        <v>1396.919737815023</v>
+        <v>1396.919737815029</v>
       </c>
       <c r="U5" t="n">
-        <v>1396.919737815023</v>
+        <v>1396.919737815029</v>
       </c>
       <c r="V5" t="n">
-        <v>1396.919737815023</v>
+        <v>1396.919737815029</v>
       </c>
       <c r="W5" t="n">
-        <v>1396.919737815023</v>
+        <v>1396.919737815029</v>
       </c>
       <c r="X5" t="n">
-        <v>1396.919737815023</v>
+        <v>1044.16222826578</v>
       </c>
       <c r="Y5" t="n">
-        <v>1396.919737815023</v>
+        <v>1044.16222826578</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>550.4496965895876</v>
+        <v>87.17226479006627</v>
       </c>
       <c r="C6" t="n">
-        <v>375.9966673084606</v>
+        <v>27.93839475630059</v>
       </c>
       <c r="D6" t="n">
-        <v>227.0622576472093</v>
+        <v>27.93839475630059</v>
       </c>
       <c r="E6" t="n">
-        <v>227.0622576472093</v>
+        <v>27.93839475630059</v>
       </c>
       <c r="F6" t="n">
-        <v>80.52769967409429</v>
+        <v>27.93839475630059</v>
       </c>
       <c r="G6" t="n">
-        <v>80.52769967409429</v>
+        <v>27.93839475630059</v>
       </c>
       <c r="H6" t="n">
-        <v>27.93839475630045</v>
+        <v>27.93839475630059</v>
       </c>
       <c r="I6" t="n">
-        <v>27.93839475630045</v>
+        <v>27.93839475630059</v>
       </c>
       <c r="J6" t="n">
-        <v>40.71784159143078</v>
+        <v>40.7178415914312</v>
       </c>
       <c r="K6" t="n">
-        <v>140.7147764379371</v>
+        <v>140.714776437938</v>
       </c>
       <c r="L6" t="n">
-        <v>321.4955368824495</v>
+        <v>486.4524115471578</v>
       </c>
       <c r="M6" t="n">
-        <v>551.8150256158613</v>
+        <v>716.7719002805703</v>
       </c>
       <c r="N6" t="n">
-        <v>802.6390307947657</v>
+        <v>967.5959054594756</v>
       </c>
       <c r="O6" t="n">
-        <v>1009.874197887849</v>
+        <v>1174.83107255256</v>
       </c>
       <c r="P6" t="n">
-        <v>1156.865623411833</v>
+        <v>1348.579058983957</v>
       </c>
       <c r="Q6" t="n">
-        <v>1396.919737815023</v>
+        <v>1396.919737815029</v>
       </c>
       <c r="R6" t="n">
-        <v>1388.514189308344</v>
+        <v>1388.514189308351</v>
       </c>
       <c r="S6" t="n">
-        <v>1388.514189308344</v>
+        <v>1388.514189308351</v>
       </c>
       <c r="T6" t="n">
-        <v>1388.514189308344</v>
+        <v>1388.514189308351</v>
       </c>
       <c r="U6" t="n">
-        <v>1388.514189308344</v>
+        <v>1160.388865740565</v>
       </c>
       <c r="V6" t="n">
-        <v>1388.514189308344</v>
+        <v>925.2367575088226</v>
       </c>
       <c r="W6" t="n">
-        <v>1134.276832580142</v>
+        <v>670.999400780621</v>
       </c>
       <c r="X6" t="n">
-        <v>926.4253323746095</v>
+        <v>463.1479005750882</v>
       </c>
       <c r="Y6" t="n">
-        <v>718.6650336096557</v>
+        <v>255.3876018101343</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>647.5386329486215</v>
+        <v>780.2496540755044</v>
       </c>
       <c r="C7" t="n">
-        <v>478.6024500207146</v>
+        <v>611.3134711475975</v>
       </c>
       <c r="D7" t="n">
-        <v>328.4858106083789</v>
+        <v>461.1968317352618</v>
       </c>
       <c r="E7" t="n">
-        <v>180.5727170259858</v>
+        <v>313.2837381528686</v>
       </c>
       <c r="F7" t="n">
-        <v>33.6827695280754</v>
+        <v>166.3937906549583</v>
       </c>
       <c r="G7" t="n">
-        <v>33.6827695280754</v>
+        <v>27.93839475630059</v>
       </c>
       <c r="H7" t="n">
-        <v>33.6827695280754</v>
+        <v>27.93839475630059</v>
       </c>
       <c r="I7" t="n">
-        <v>33.6827695280754</v>
+        <v>27.93839475630059</v>
       </c>
       <c r="J7" t="n">
-        <v>27.93839475630045</v>
+        <v>27.93839475630059</v>
       </c>
       <c r="K7" t="n">
-        <v>148.5233105874691</v>
+        <v>148.5233105874695</v>
       </c>
       <c r="L7" t="n">
-        <v>358.3569215208641</v>
+        <v>358.3569215208649</v>
       </c>
       <c r="M7" t="n">
-        <v>589.9861665014276</v>
+        <v>589.9861665014288</v>
       </c>
       <c r="N7" t="n">
-        <v>821.542402175025</v>
+        <v>821.5424021750266</v>
       </c>
       <c r="O7" t="n">
-        <v>1019.405768767886</v>
+        <v>1019.405768767888</v>
       </c>
       <c r="P7" t="n">
-        <v>1165.191378612032</v>
+        <v>1165.191378612034</v>
       </c>
       <c r="Q7" t="n">
-        <v>1182.690698049272</v>
+        <v>1182.690698049274</v>
       </c>
       <c r="R7" t="n">
-        <v>1182.690698049272</v>
+        <v>1182.690698049274</v>
       </c>
       <c r="S7" t="n">
-        <v>1182.690698049272</v>
+        <v>1182.690698049274</v>
       </c>
       <c r="T7" t="n">
-        <v>1182.690698049272</v>
+        <v>1182.690698049274</v>
       </c>
       <c r="U7" t="n">
-        <v>1182.690698049272</v>
+        <v>1182.690698049274</v>
       </c>
       <c r="V7" t="n">
-        <v>1182.690698049272</v>
+        <v>1182.690698049274</v>
       </c>
       <c r="W7" t="n">
-        <v>1182.690698049272</v>
+        <v>1182.690698049274</v>
       </c>
       <c r="X7" t="n">
-        <v>1049.979676922391</v>
+        <v>1182.690698049274</v>
       </c>
       <c r="Y7" t="n">
-        <v>829.1870977788612</v>
+        <v>961.8981189057441</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1059.365742829029</v>
+        <v>1412.134398099142</v>
       </c>
       <c r="C8" t="n">
-        <v>690.403225888617</v>
+        <v>1043.17188115873</v>
       </c>
       <c r="D8" t="n">
-        <v>332.1375272818665</v>
+        <v>684.9061825519796</v>
       </c>
       <c r="E8" t="n">
-        <v>69.85663355251367</v>
+        <v>299.1179299537353</v>
       </c>
       <c r="F8" t="n">
-        <v>62.9111328033102</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4819,37 +4819,37 @@
         <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W8" t="n">
-        <v>2209.570673130042</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="X8" t="n">
-        <v>1836.104914868962</v>
+        <v>2188.873570139075</v>
       </c>
       <c r="Y8" t="n">
-        <v>1445.96558289315</v>
+        <v>1798.734238163263</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966398</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155128</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542614</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488059</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756909</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182533</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812058006</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>560.1394111735143</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L9" t="n">
-        <v>854.8429682049862</v>
+        <v>777.6069060507741</v>
       </c>
       <c r="M9" t="n">
-        <v>1218.104987164206</v>
+        <v>1140.868925009994</v>
       </c>
       <c r="N9" t="n">
-        <v>1605.390115761151</v>
+        <v>1528.154053606939</v>
       </c>
       <c r="O9" t="n">
-        <v>1937.460550937313</v>
+        <v>1860.224488783101</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.02341329261</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400156</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S9" t="n">
-        <v>2426.617474780097</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T9" t="n">
-        <v>2232.610846175227</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047139</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.368633815396</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087195</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881662</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519478116708</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>939.770065904978</v>
+        <v>400.7850803617173</v>
       </c>
       <c r="C10" t="n">
-        <v>770.8338829770711</v>
+        <v>231.8488974338104</v>
       </c>
       <c r="D10" t="n">
-        <v>620.7172435647353</v>
+        <v>231.8488974338104</v>
       </c>
       <c r="E10" t="n">
-        <v>620.7172435647353</v>
+        <v>231.8488974338104</v>
       </c>
       <c r="F10" t="n">
-        <v>473.8272960668249</v>
+        <v>84.95894993590002</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751036</v>
+        <v>84.95894993590002</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>84.95894993590002</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312203</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1570.200660776765</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="V10" t="n">
-        <v>1570.200660776765</v>
+        <v>1092.643294372448</v>
       </c>
       <c r="W10" t="n">
-        <v>1570.200660776765</v>
+        <v>803.2261243354872</v>
       </c>
       <c r="X10" t="n">
-        <v>1342.211109878748</v>
+        <v>803.2261243354872</v>
       </c>
       <c r="Y10" t="n">
-        <v>1121.418530735218</v>
+        <v>582.433545191957</v>
       </c>
     </row>
     <row r="11">
@@ -5020,13 +5020,13 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5038,25 +5038,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075793</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5071,19 +5071,19 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5117,13 +5117,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
         <v>1074.481071167373</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5199,52 +5199,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="14">
@@ -5254,13 +5254,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
@@ -5281,16 +5281,16 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5308,22 +5308,22 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5357,10 +5357,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L15" t="n">
         <v>776.1751066403293</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>948.5505208511906</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
         <v>317.6151975578602</v>
@@ -5469,19 +5469,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1578.981115722978</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1350.99156482496</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>1130.19898568143</v>
       </c>
     </row>
     <row r="17">
@@ -5506,37 +5506,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5594,10 +5594,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L18" t="n">
         <v>776.1751066403293</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D19" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E19" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5673,52 +5673,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5743,19 +5743,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332386</v>
@@ -5767,7 +5767,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5828,13 +5828,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>696.7084350851671</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C22" t="n">
-        <v>527.7722521572603</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D22" t="n">
-        <v>377.6556127449245</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E22" t="n">
-        <v>261.0127623330919</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
         <v>261.0127623330919</v>
@@ -5910,52 +5910,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="U22" t="n">
-        <v>1871.240688199802</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V22" t="n">
-        <v>1616.556199993915</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W22" t="n">
-        <v>1327.139029956954</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X22" t="n">
-        <v>1099.149479058937</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y22" t="n">
-        <v>878.3568999154069</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="23">
@@ -5989,19 +5989,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6229,25 +6229,25 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>803.8641191832229</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C28" t="n">
-        <v>634.927936255316</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429803</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>369.4997403892776</v>
       </c>
       <c r="G28" t="n">
         <v>317.6151975578602</v>
@@ -6414,22 +6414,22 @@
         <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>2267.47159895366</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U28" t="n">
-        <v>1978.396372297858</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V28" t="n">
-        <v>1723.711884091971</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W28" t="n">
-        <v>1434.29471405501</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X28" t="n">
-        <v>1206.305163156993</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y28" t="n">
-        <v>985.5125840134626</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="29">
@@ -6451,34 +6451,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6539,22 +6539,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6612,7 +6612,7 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6682,31 +6682,31 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014779</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6885,25 +6885,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="35">
@@ -6928,7 +6928,7 @@
         <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -6937,19 +6937,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7074,22 +7074,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7156,16 +7156,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7390,70 +7390,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7487,13 +7487,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362692</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7660,40 +7660,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7721,16 +7721,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>707.672526468518</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>538.7363435406111</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D46" t="n">
-        <v>388.6197041282753</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1882.204779583153</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1627.520291377266</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1338.103121340305</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1110.113570442288</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>889.3209912987577</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8139,7 +8139,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402855</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
@@ -8148,13 +8148,13 @@
         <v>171.4142040457083</v>
       </c>
       <c r="N4" t="n">
-        <v>75.41988959484645</v>
+        <v>99.67938739116963</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>135.0065633140411</v>
+        <v>18.10760906709389</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>41.92993463898941</v>
+        <v>41.92993463898907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8300,7 +8300,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>166.623105721926</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8312,10 +8312,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>27.02682919940685</v>
       </c>
       <c r="Q6" t="n">
-        <v>193.649934921331</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,10 +8534,10 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>186.449012614385</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>265.030432851515</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154985</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23503,7 +23503,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23661,13 +23661,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23709,13 +23709,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>144.1654765207637</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>46.45968844823102</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24135,10 +24135,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>30.95754073885493</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,13 +24177,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>71.22040037418631</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24369,13 +24369,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24609,13 +24609,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24654,7 +24654,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>39.70888054695368</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24852,10 +24852,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>57.22910392194132</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>125.5054897610403</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>57.22910392194143</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>800100.1156577676</v>
+        <v>800100.1156577677</v>
       </c>
     </row>
     <row r="4">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>779598.0929707644</v>
+        <v>779598.0929707646</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>779598.0929707644</v>
+        <v>779598.0929707645</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>779598.0929707644</v>
+        <v>779598.0929707645</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>779598.0929707644</v>
+        <v>779598.0929707645</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>779598.0929707644</v>
+        <v>779598.0929707645</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.415891426</v>
+        <v>656833.4158914265</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914265</v>
+        <v>656833.4158914266</v>
       </c>
       <c r="D2" t="n">
         <v>656833.4158914272</v>
       </c>
       <c r="E2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.279752005</v>
       </c>
       <c r="F2" t="n">
         <v>645717.2797520049</v>
       </c>
       <c r="G2" t="n">
+        <v>645717.2797520051</v>
+      </c>
+      <c r="H2" t="n">
         <v>645717.2797520049</v>
-      </c>
-      <c r="H2" t="n">
-        <v>645717.2797520047</v>
       </c>
       <c r="I2" t="n">
         <v>645717.2797520048</v>
       </c>
       <c r="J2" t="n">
+        <v>645717.2797520049</v>
+      </c>
+      <c r="K2" t="n">
+        <v>645717.2797520049</v>
+      </c>
+      <c r="L2" t="n">
+        <v>645717.2797520049</v>
+      </c>
+      <c r="M2" t="n">
+        <v>645717.2797520049</v>
+      </c>
+      <c r="N2" t="n">
         <v>645717.2797520047</v>
       </c>
-      <c r="K2" t="n">
-        <v>645717.2797520047</v>
-      </c>
-      <c r="L2" t="n">
-        <v>645717.2797520047</v>
-      </c>
-      <c r="M2" t="n">
-        <v>645717.2797520047</v>
-      </c>
-      <c r="N2" t="n">
-        <v>645717.2797520049</v>
-      </c>
       <c r="O2" t="n">
-        <v>645717.2797520047</v>
+        <v>645717.279752005</v>
       </c>
       <c r="P2" t="n">
         <v>645717.2797520049</v>
@@ -26368,19 +26368,19 @@
         <v>591356.9025208453</v>
       </c>
       <c r="C3" t="n">
-        <v>178997.5061427119</v>
+        <v>178997.5061427137</v>
       </c>
       <c r="D3" t="n">
-        <v>301519.870773121</v>
+        <v>301519.870773119</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245456</v>
+        <v>507485.4416245461</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26392,19 +26392,19 @@
         <v>49064.94472854459</v>
       </c>
       <c r="K3" t="n">
-        <v>41617.5244526728</v>
+        <v>41617.52445267323</v>
       </c>
       <c r="L3" t="n">
-        <v>73739.30240019553</v>
+        <v>73739.30240019501</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289266</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>3.080258466070518e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26420,22 +26420,22 @@
         <v>277470.8484307132</v>
       </c>
       <c r="C4" t="n">
-        <v>229588.1389806968</v>
+        <v>229588.1389806963</v>
       </c>
       <c r="D4" t="n">
         <v>145155.2306979382</v>
       </c>
       <c r="E4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184271</v>
       </c>
       <c r="F4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184269</v>
       </c>
       <c r="G4" t="n">
         <v>13606.80811184275</v>
       </c>
       <c r="H4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="I4" t="n">
         <v>13606.80811184274</v>
@@ -26444,7 +26444,7 @@
         <v>13606.80811184274</v>
       </c>
       <c r="K4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="L4" t="n">
         <v>13606.80811184274</v>
@@ -26456,7 +26456,7 @@
         <v>13606.80811184274</v>
       </c>
       <c r="O4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="P4" t="n">
         <v>13606.80811184275</v>
@@ -26472,10 +26472,10 @@
         <v>56985.80041161356</v>
       </c>
       <c r="C5" t="n">
-        <v>69851.97930029177</v>
+        <v>69851.9793002919</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-268980.135471746</v>
+        <v>-268980.1354717455</v>
       </c>
       <c r="C6" t="n">
-        <v>178395.7914677261</v>
+        <v>178395.7914677247</v>
       </c>
       <c r="D6" t="n">
-        <v>117220.5419805233</v>
+        <v>117220.5419805253</v>
       </c>
       <c r="E6" t="n">
-        <v>23155.12093735255</v>
+        <v>23467.76226627342</v>
       </c>
       <c r="F6" t="n">
-        <v>530640.5625618981</v>
+        <v>530953.2038908197</v>
       </c>
       <c r="G6" t="n">
-        <v>530640.5625618981</v>
+        <v>530953.2038908195</v>
       </c>
       <c r="H6" t="n">
-        <v>530640.5625618979</v>
+        <v>530953.2038908195</v>
       </c>
       <c r="I6" t="n">
-        <v>530640.562561898</v>
+        <v>530953.2038908195</v>
       </c>
       <c r="J6" t="n">
-        <v>481575.6178333533</v>
+        <v>481888.2591622748</v>
       </c>
       <c r="K6" t="n">
-        <v>489023.038109225</v>
+        <v>489335.6794381461</v>
       </c>
       <c r="L6" t="n">
-        <v>456901.2601617023</v>
+        <v>457213.9014906243</v>
       </c>
       <c r="M6" t="n">
-        <v>398033.2688329712</v>
+        <v>398345.9101618927</v>
       </c>
       <c r="N6" t="n">
-        <v>530640.5625618981</v>
+        <v>530953.2038908192</v>
       </c>
       <c r="O6" t="n">
-        <v>530640.5625618979</v>
+        <v>530953.2038908191</v>
       </c>
       <c r="P6" t="n">
-        <v>530640.5625618981</v>
+        <v>530953.2038908193</v>
       </c>
     </row>
   </sheetData>
@@ -26740,10 +26740,10 @@
         <v>548.4699409129045</v>
       </c>
       <c r="C3" t="n">
-        <v>687.6696919955704</v>
+        <v>687.6696919955717</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26792,10 +26792,10 @@
         <v>187.5255871663198</v>
       </c>
       <c r="C4" t="n">
-        <v>349.2299344537557</v>
+        <v>349.2299344537573</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26831,7 +26831,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
     </row>
   </sheetData>
@@ -26962,25 +26962,25 @@
         <v>548.4699409129045</v>
       </c>
       <c r="C3" t="n">
-        <v>139.1997510826659</v>
+        <v>139.1997510826673</v>
       </c>
       <c r="D3" t="n">
-        <v>246.3952001219691</v>
+        <v>246.3952001219674</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241343</v>
+        <v>433.9106082241349</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-2.045260082511876e-14</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27014,13 +27014,13 @@
         <v>187.5255871663198</v>
       </c>
       <c r="C4" t="n">
-        <v>161.7043472874359</v>
+        <v>161.7043472874375</v>
       </c>
       <c r="D4" t="n">
-        <v>291.3548976462834</v>
+        <v>291.3548976462814</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996093</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27038,13 +27038,13 @@
         <v>187.5255871663198</v>
       </c>
       <c r="K4" t="n">
-        <v>161.7043472874359</v>
+        <v>161.7043472874375</v>
       </c>
       <c r="L4" t="n">
-        <v>291.3548976462835</v>
+        <v>291.3548976462814</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996093</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>187.5255871663198</v>
       </c>
       <c r="K4" t="n">
-        <v>161.7043472874359</v>
+        <v>161.7043472874375</v>
       </c>
       <c r="L4" t="n">
-        <v>291.3548976462834</v>
+        <v>291.3548976462814</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996093</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>242.0244368611255</v>
+        <v>195.2082544971608</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27390,7 +27390,7 @@
         <v>194.404782905942</v>
       </c>
       <c r="F2" t="n">
-        <v>219.3504585753916</v>
+        <v>266.1666409393564</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27463,16 +27463,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>100.8417573507397</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>26.91122581714239</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
@@ -27517,16 +27517,16 @@
         <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>45.27499998310546</v>
+        <v>121.2549429644892</v>
       </c>
       <c r="W3" t="n">
         <v>64.1693959945998</v>
       </c>
       <c r="X3" t="n">
-        <v>67.5116738445254</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.15710861098455</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27539,13 +27539,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>154.0328391145915</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27557,10 +27557,10 @@
         <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>23.43375830553086</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27593,7 +27593,7 @@
         <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
-        <v>212.2062139801564</v>
+        <v>98.73949432713046</v>
       </c>
       <c r="V4" t="n">
         <v>64.61205615750819</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>31.05906618577498</v>
       </c>
     </row>
     <row r="5">
@@ -27618,25 +27618,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>16.04295731725188</v>
+        <v>16.04295731725023</v>
       </c>
       <c r="D5" t="n">
-        <v>5.453107166927282</v>
+        <v>5.453107166925633</v>
       </c>
       <c r="E5" t="n">
-        <v>86.86688004617497</v>
+        <v>93.74292578788476</v>
       </c>
       <c r="F5" t="n">
-        <v>57.64611128795576</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>311.1628534397887</v>
+        <v>311.1628534397886</v>
       </c>
       <c r="I5" t="n">
-        <v>103.8974541908713</v>
+        <v>103.8974541908711</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>146.0239967969024</v>
+        <v>146.0239967969023</v>
       </c>
       <c r="T5" t="n">
         <v>210.9942452356465</v>
@@ -27681,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>20.50116622471171</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27697,25 +27697,25 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>114.0669676548877</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>135.8643785804277</v>
       </c>
       <c r="H6" t="n">
-        <v>45.88666763416126</v>
+        <v>97.95007950277713</v>
       </c>
       <c r="I6" t="n">
-        <v>38.47015094419594</v>
+        <v>38.47015094419584</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27745,16 +27745,16 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>144.2088206736375</v>
+        <v>144.2088206736374</v>
       </c>
       <c r="T6" t="n">
         <v>194.2027622142185</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8440703321075</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -27788,16 +27788,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.7509192581389</v>
+        <v>29.68007731846777</v>
       </c>
       <c r="H7" t="n">
         <v>151.2019108882319</v>
       </c>
       <c r="I7" t="n">
-        <v>118.1584857285477</v>
+        <v>118.1584857285476</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>5.686931024057031</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>121.535779957332</v>
+        <v>121.5357799573318</v>
       </c>
       <c r="S7" t="n">
         <v>202.4057324704885</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>94.32574447342523</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27861,10 +27861,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>122.2722852802024</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>173.0313165627906</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247044</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27915,7 +27915,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28016,7 +28016,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>71.42155346968264</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28067,16 +28067,16 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>220.6441494164453</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28101,7 +28101,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>-8.444841250298201e-13</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28380,7 +28380,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-7.82041006105577e-13</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.76450127435405</v>
+        <v>2.764501274354055</v>
       </c>
       <c r="H5" t="n">
-        <v>28.31194867597842</v>
+        <v>28.31194867597847</v>
       </c>
       <c r="I5" t="n">
-        <v>106.5784353795346</v>
+        <v>106.5784353795348</v>
       </c>
       <c r="J5" t="n">
-        <v>234.6335900342072</v>
+        <v>234.6335900342077</v>
       </c>
       <c r="K5" t="n">
-        <v>351.6549289776142</v>
+        <v>351.6549289776149</v>
       </c>
       <c r="L5" t="n">
-        <v>436.2590348526271</v>
+        <v>436.2590348526279</v>
       </c>
       <c r="M5" t="n">
-        <v>485.4222343904208</v>
+        <v>485.4222343904218</v>
       </c>
       <c r="N5" t="n">
-        <v>493.2768736361793</v>
+        <v>493.2768736361803</v>
       </c>
       <c r="O5" t="n">
-        <v>465.7873640893212</v>
+        <v>465.7873640893222</v>
       </c>
       <c r="P5" t="n">
-        <v>397.5387388787056</v>
+        <v>397.5387388787063</v>
       </c>
       <c r="Q5" t="n">
-        <v>298.5350369909011</v>
+        <v>298.5350369909017</v>
       </c>
       <c r="R5" t="n">
-        <v>173.6556031751427</v>
+        <v>173.6556031751431</v>
       </c>
       <c r="S5" t="n">
-        <v>62.99607278934297</v>
+        <v>62.9960727893431</v>
       </c>
       <c r="T5" t="n">
-        <v>12.10160432848486</v>
+        <v>12.10160432848488</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2211601019483239</v>
+        <v>0.2211601019483244</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.479138582782925</v>
+        <v>1.479138582782928</v>
       </c>
       <c r="H6" t="n">
-        <v>14.2853647337193</v>
+        <v>14.28536473371933</v>
       </c>
       <c r="I6" t="n">
-        <v>50.92648190721913</v>
+        <v>50.92648190721923</v>
       </c>
       <c r="J6" t="n">
-        <v>139.746158823364</v>
+        <v>139.7461588233643</v>
       </c>
       <c r="K6" t="n">
-        <v>238.84844386982</v>
+        <v>238.8484438698204</v>
       </c>
       <c r="L6" t="n">
-        <v>321.1612085117048</v>
+        <v>321.1612085117055</v>
       </c>
       <c r="M6" t="n">
-        <v>374.7799821375858</v>
+        <v>374.7799821375866</v>
       </c>
       <c r="N6" t="n">
-        <v>384.6992930721257</v>
+        <v>384.6992930721265</v>
       </c>
       <c r="O6" t="n">
-        <v>351.9246960536199</v>
+        <v>351.9246960536206</v>
       </c>
       <c r="P6" t="n">
-        <v>282.4505948122938</v>
+        <v>282.4505948122944</v>
       </c>
       <c r="Q6" t="n">
-        <v>188.8107426022555</v>
+        <v>188.8107426022559</v>
       </c>
       <c r="R6" t="n">
-        <v>91.83634113103112</v>
+        <v>91.83634113103129</v>
       </c>
       <c r="S6" t="n">
-        <v>27.47435043020036</v>
+        <v>27.47435043020042</v>
       </c>
       <c r="T6" t="n">
-        <v>5.961966480603103</v>
+        <v>5.961966480603115</v>
       </c>
       <c r="U6" t="n">
-        <v>0.09731174886729774</v>
+        <v>0.09731174886729793</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.240060100319881</v>
+        <v>1.240060100319883</v>
       </c>
       <c r="H7" t="n">
-        <v>11.02526161920768</v>
+        <v>11.0252616192077</v>
       </c>
       <c r="I7" t="n">
-        <v>37.29198919871061</v>
+        <v>37.29198919871068</v>
       </c>
       <c r="J7" t="n">
-        <v>87.67224909261557</v>
+        <v>87.67224909261574</v>
       </c>
       <c r="K7" t="n">
-        <v>144.0724371098916</v>
+        <v>144.0724371098919</v>
       </c>
       <c r="L7" t="n">
-        <v>184.3631170966485</v>
+        <v>184.3631170966489</v>
       </c>
       <c r="M7" t="n">
-        <v>194.3850573619609</v>
+        <v>194.3850573619613</v>
       </c>
       <c r="N7" t="n">
-        <v>189.7630151698597</v>
+        <v>189.7630151698601</v>
       </c>
       <c r="O7" t="n">
-        <v>175.2768585433956</v>
+        <v>175.2768585433959</v>
       </c>
       <c r="P7" t="n">
-        <v>149.9796324968699</v>
+        <v>149.9796324968702</v>
       </c>
       <c r="Q7" t="n">
-        <v>103.8381234913311</v>
+        <v>103.8381234913313</v>
       </c>
       <c r="R7" t="n">
-        <v>55.75761141983754</v>
+        <v>55.75761141983765</v>
       </c>
       <c r="S7" t="n">
-        <v>21.61086556648374</v>
+        <v>21.61086556648378</v>
       </c>
       <c r="T7" t="n">
-        <v>5.298438610457671</v>
+        <v>5.298438610457682</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06763964183562994</v>
+        <v>0.06763964183563008</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,25 +31679,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335773</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31706,16 +31706,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
@@ -31843,16 +31843,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
         <v>398.7616643558013</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32077,13 +32077,13 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L15" t="n">
-        <v>339.3493584601592</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>326.7634969305192</v>
       </c>
       <c r="L18" t="n">
-        <v>339.3493584601592</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162548</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,16 +32554,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
         <v>398.7616643558013</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33207,7 +33207,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33277,7 +33277,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,19 +34213,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P43" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,19 +34450,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P46" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>92.63945645062398</v>
       </c>
       <c r="L4" t="n">
         <v>174.6339172880152</v>
@@ -34868,13 +34868,13 @@
         <v>187.5255871663198</v>
       </c>
       <c r="N4" t="n">
-        <v>99.08507489005468</v>
+        <v>123.3445726863779</v>
       </c>
       <c r="O4" t="n">
         <v>164.382023673283</v>
       </c>
       <c r="P4" t="n">
-        <v>116.8989542469472</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>53.58768550752094</v>
+        <v>53.5876855075214</v>
       </c>
       <c r="K5" t="n">
-        <v>131.5650779326337</v>
+        <v>131.5650779326344</v>
       </c>
       <c r="L5" t="n">
-        <v>200.4926198826398</v>
+        <v>200.4926198826407</v>
       </c>
       <c r="M5" t="n">
-        <v>255.0760011631481</v>
+        <v>255.0760011631491</v>
       </c>
       <c r="N5" t="n">
-        <v>263.8638100395884</v>
+        <v>263.8638100395894</v>
       </c>
       <c r="O5" t="n">
-        <v>235.6891526676345</v>
+        <v>235.6891526676355</v>
       </c>
       <c r="P5" t="n">
-        <v>166.3057431234361</v>
+        <v>166.3057431234368</v>
       </c>
       <c r="Q5" t="n">
-        <v>76.22934711645158</v>
+        <v>76.2293471164522</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>12.90853215669731</v>
+        <v>12.90853215669759</v>
       </c>
       <c r="K6" t="n">
-        <v>101.007004895461</v>
+        <v>101.0070048954614</v>
       </c>
       <c r="L6" t="n">
-        <v>182.6068287318307</v>
+        <v>349.2299344537573</v>
       </c>
       <c r="M6" t="n">
-        <v>232.6459482155675</v>
+        <v>232.6459482155682</v>
       </c>
       <c r="N6" t="n">
-        <v>253.3575809887924</v>
+        <v>253.3575809887932</v>
       </c>
       <c r="O6" t="n">
-        <v>209.3284516091754</v>
+        <v>209.3284516091761</v>
       </c>
       <c r="P6" t="n">
-        <v>148.4761873979636</v>
+        <v>175.503016597371</v>
       </c>
       <c r="Q6" t="n">
-        <v>242.4789034375649</v>
+        <v>48.82896851623434</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,25 +35096,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>121.8029452840087</v>
+        <v>121.802945284009</v>
       </c>
       <c r="L7" t="n">
-        <v>211.9531423569646</v>
+        <v>211.953142356965</v>
       </c>
       <c r="M7" t="n">
-        <v>233.9689343238015</v>
+        <v>233.9689343238019</v>
       </c>
       <c r="N7" t="n">
-        <v>233.8951875490883</v>
+        <v>233.8951875490887</v>
       </c>
       <c r="O7" t="n">
-        <v>199.8619864574353</v>
+        <v>199.8619864574356</v>
       </c>
       <c r="P7" t="n">
-        <v>147.2581917617634</v>
+        <v>147.2581917617637</v>
       </c>
       <c r="Q7" t="n">
-        <v>17.67608023963673</v>
+        <v>17.67608023963695</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637951</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560635</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378503</v>
+        <v>484.1293732522352</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>514.7099619750473</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,13 +35494,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
         <v>256.1654199113569</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35725,13 +35725,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L15" t="n">
-        <v>200.7949786802851</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,22 +35962,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>188.9220579561602</v>
       </c>
       <c r="L18" t="n">
-        <v>200.7949786802851</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,13 +36205,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
         <v>256.1654199113569</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36925,7 +36925,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,25 +37855,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,25 +38092,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
